--- a/reports/matrizseguridad.xlsx
+++ b/reports/matrizseguridad.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>MATRIZ DE REPORTE INSPECCIONES PLANIFICADAS SSMA</t>
   </si>
@@ -96,6 +96,318 @@
   <si>
     <t>Registro</t>
   </si>
+  <si>
+    <t>20PP03 L. RELAVES ESTE / 00679</t>
+  </si>
+  <si>
+    <t>18/10/2021</t>
+  </si>
+  <si>
+    <t>Estación oeste</t>
+  </si>
+  <si>
+    <t>prueba android</t>
+  </si>
+  <si>
+    <t>JHON ANTHONY CURI SARAVIA</t>
+  </si>
+  <si>
+    <t>Condicion Subestándar</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2021-10-18</t>
+  </si>
+  <si>
+    <t>2021-10-18 12:14:15</t>
+  </si>
+  <si>
+    <t>Acto Subestándar</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Crucé vía nacional</t>
+  </si>
+  <si>
+    <t>prueba de ubicacion</t>
+  </si>
+  <si>
+    <t>Utilizar equipos / herramientas defectuosos</t>
+  </si>
+  <si>
+    <t>prueba 1007</t>
+  </si>
+  <si>
+    <t>prueba</t>
+  </si>
+  <si>
+    <t>2021-10-18 11:04:02</t>
+  </si>
+  <si>
+    <t>Deficiencia en el aislamiento y bloqueo</t>
+  </si>
+  <si>
+    <t>prueba 1024</t>
+  </si>
+  <si>
+    <t>Estación éste</t>
+  </si>
+  <si>
+    <t>Inutilizar / retirar dispositivos o controles de seguridad</t>
+  </si>
+  <si>
+    <t>2021-10-18 10:51:45</t>
+  </si>
+  <si>
+    <t>Ventilación inadecuada</t>
+  </si>
+  <si>
+    <t>prueba 946</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>2021-10-18 10:41:14</t>
+  </si>
+  <si>
+    <t>Oficinas administrativas</t>
+  </si>
+  <si>
+    <t>prueba 1038</t>
+  </si>
+  <si>
+    <t>Levantamiento incorrecto de equipos, materiales o herramientas</t>
+  </si>
+  <si>
+    <t>2021-10-18 10:39:16</t>
+  </si>
+  <si>
+    <t>prueba 1029</t>
+  </si>
+  <si>
+    <t>2021-10-18 10:29:50</t>
+  </si>
+  <si>
+    <t>prueba 1008</t>
+  </si>
+  <si>
+    <t>2021-10-18 10:07:53</t>
+  </si>
+  <si>
+    <t>EPC - Obras Electromecánicas Varias Malvinas</t>
+  </si>
+  <si>
+    <t>12/10/2021</t>
+  </si>
+  <si>
+    <t>Planta de Concreto</t>
+  </si>
+  <si>
+    <t>Uso incorrecto de equipos / materiales</t>
+  </si>
+  <si>
+    <t>2021-10-12</t>
+  </si>
+  <si>
+    <t>2021-10-12 13:49:26</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>Of. Administrativa Aviación</t>
+  </si>
+  <si>
+    <t>Área congestionada - accionar restringido</t>
+  </si>
+  <si>
+    <t>pruea</t>
+  </si>
+  <si>
+    <t>2021-10-12 13:45:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prueba de ubicación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prueba de condición </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acción correctiva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resoknsbale del área </t>
+  </si>
+  <si>
+    <t>2021-10-12 12:35:01</t>
+  </si>
+  <si>
+    <t>prueba de ubicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prueba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prueba de acción correctiva </t>
+  </si>
+  <si>
+    <t>2021-10-12 12:32:35</t>
+  </si>
+  <si>
+    <t>LURIN</t>
+  </si>
+  <si>
+    <t>Zona de descarga</t>
+  </si>
+  <si>
+    <t>prueba.</t>
+  </si>
+  <si>
+    <t>2021-10-12 12:08:49</t>
+  </si>
+  <si>
+    <t>Oficinas</t>
+  </si>
+  <si>
+    <t>2021-10-12 11:46:03</t>
+  </si>
+  <si>
+    <t>07/10/2021</t>
+  </si>
+  <si>
+    <t>Of. Administrativa San Borja Norte</t>
+  </si>
+  <si>
+    <t>prueba ubicacion</t>
+  </si>
+  <si>
+    <t>2021-10-07</t>
+  </si>
+  <si>
+    <t>2021-10-07 15:20:35</t>
+  </si>
+  <si>
+    <t>Acerca del EPP (detallar)</t>
+  </si>
+  <si>
+    <t>2021-10-07 15:13:04</t>
+  </si>
+  <si>
+    <t>20/09/2021</t>
+  </si>
+  <si>
+    <t>2021-09-20</t>
+  </si>
+  <si>
+    <t>2021-09-20 00:09:14</t>
+  </si>
+  <si>
+    <t>2021-09-20 00:05:50</t>
+  </si>
+  <si>
+    <t>PUCALLPA</t>
+  </si>
+  <si>
+    <t>Almacén de productos químicos</t>
+  </si>
+  <si>
+    <t>Advertencia - Señalética faltante / incorrecta</t>
+  </si>
+  <si>
+    <t>2021-09-20 00:04:03</t>
+  </si>
+  <si>
+    <t>18/09/2021</t>
+  </si>
+  <si>
+    <t>Exposición a ruido</t>
+  </si>
+  <si>
+    <t>2021-09-18</t>
+  </si>
+  <si>
+    <t>2021-09-18 10:07:28</t>
+  </si>
+  <si>
+    <t>2021-09-18 10:05:32</t>
+  </si>
+  <si>
+    <t>Desorden / Desaseo</t>
+  </si>
+  <si>
+    <t>2021-09-18 10:04:23</t>
+  </si>
+  <si>
+    <t>Operar equipos a velocidad incorrecta</t>
+  </si>
+  <si>
+    <t>16/09/2021</t>
+  </si>
+  <si>
+    <t>2021-09-16</t>
+  </si>
+  <si>
+    <t>2021-09-16 14:36:04</t>
+  </si>
+  <si>
+    <t>2021-09-16 14:33:47</t>
+  </si>
+  <si>
+    <t>2021-09-16 14:32:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaNo consignada </t>
+  </si>
+  <si>
+    <t>2021-09-16 14:27:01</t>
+  </si>
+  <si>
+    <t>2021-09-16 14:24:19</t>
+  </si>
+  <si>
+    <t>2021-09-16 14:09:33</t>
+  </si>
+  <si>
+    <t>2021-09-16 14:08:21</t>
+  </si>
+  <si>
+    <t>2021-09-26</t>
+  </si>
+  <si>
+    <t>2021-09-16 13:59:07</t>
+  </si>
+  <si>
+    <t>Posición inadecuada para la tarea</t>
+  </si>
+  <si>
+    <t>Its possible to reference the class using a variable. The variable's value can not be a keyword (e.g. self, parent and static). Note that class constants are allocated once per class, and not for each class instance.</t>
+  </si>
+  <si>
+    <t>2021-09-16 10:41:05</t>
+  </si>
+  <si>
+    <t>15/09/2021</t>
+  </si>
+  <si>
+    <t>2021-09-15</t>
+  </si>
+  <si>
+    <t>2021-09-15 13:58:43</t>
+  </si>
+  <si>
+    <t>2021-09-15 13:48:55</t>
+  </si>
+  <si>
+    <t>2021-09-25</t>
+  </si>
+  <si>
+    <t>2021-09-15 13:46:01</t>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +443,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +456,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00DD00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -178,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -209,6 +539,15 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -237,6 +576,666 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="361950" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1634577255a910804f-aa3e-40fa-b09d-f8a58d0c96c36693522829570414600_out.jpg" descr="http://localhost/ssma/public/photos/1634577255a910804f-aa3e-40fa-b09d-f8a58d0c96c36693522829570414600_out.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="361950" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="1634577257a0f63f99-0402-4f6c-b782-391ab3b8f093249386852269538245_out.jpg" descr="http://localhost/ssma/public/photos/1634577257a0f63f99-0402-4f6c-b782-391ab3b8f093249386852269538245_out.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="495300" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="download.png" descr="http://localhost/ssma/public/photos/download.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771525" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="images (1).png" descr="http://localhost/ssma/public/photos/images (1).png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="590550" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="images.png" descr="http://localhost/ssma/public/photos/images.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="638175" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="circulo-brillante-iluminacion-purpura-aislado-sobre-fondo-oscuro_1441-2396.jpg" descr="http://localhost/ssma/public/photos/circulo-brillante-iluminacion-purpura-aislado-sobre-fondo-oscuro_1441-2396.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="361950" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="16340601011b0366e5-ea3f-4901-a200-efc8ca5062fd1103817483847564284_out.jpg" descr="http://localhost/ssma/public/photos/16340601011b0366e5-ea3f-4901-a200-efc8ca5062fd1103817483847564284_out.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="361950" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="1634058529fbd03b64-4b4f-475e-bdbd-3e99f89c53473171361046319050863_out.jpg" descr="http://localhost/ssma/public/photos/1634058529fbd03b64-4b4f-475e-bdbd-3e99f89c53473171361046319050863_out.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="prueba.jpg" descr="http://localhost/ssma/public/photos/prueba.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Sopa-de-letras.png" descr="http://localhost/ssma/public/photos/Sopa-de-letras.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Sopa-de-letras.png" descr="http://localhost/ssma/public/photos/Sopa-de-letras.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Sopa-de-letras.png" descr="http://localhost/ssma/public/photos/Sopa-de-letras.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Sopa-de-letras.png" descr="http://localhost/ssma/public/photos/Sopa-de-letras.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="fuente.png" descr="http://localhost/ssma/public/photos/fuente.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="diagrama.png" descr="http://localhost/ssma/public/photos/diagrama.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="peligro.png" descr="http://localhost/ssma/public/photos/peligro.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="diagrama.png" descr="http://localhost/ssma/public/photos/diagrama.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="prueba.jpg" descr="http://localhost/ssma/public/photos/prueba.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="prueba.jpg" descr="http://localhost/ssma/public/photos/prueba.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Sopa-de-letras.png" descr="http://localhost/ssma/public/photos/Sopa-de-letras.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="situacion.png" descr="http://localhost/ssma/public/photos/situacion.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="acto.png" descr="http://localhost/ssma/public/photos/acto.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -546,7 +1545,7 @@
   <dimension ref="A1:Z2000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -846,27 +1845,55 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" customHeight="1" ht="200">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="2"/>
+      <c r="T9" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
@@ -874,27 +1901,55 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" customHeight="1" ht="200">
       <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
@@ -904,25 +1959,53 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
@@ -932,25 +2015,53 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -960,25 +2071,53 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="B13" s="7">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -988,25 +2127,53 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="B14" s="7">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -1014,27 +2181,55 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" customHeight="1" ht="200">
       <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="B15" s="7">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
@@ -1042,27 +2237,55 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" customHeight="1" ht="200">
       <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
+      <c r="B16" s="7">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -1070,27 +2293,53 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" customHeight="1" ht="200">
       <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="B17" s="7">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
@@ -1098,27 +2347,53 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" customHeight="1" ht="200">
       <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="B18" s="7">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -1128,25 +2403,53 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
+      <c r="B19" s="7">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
@@ -1156,25 +2459,53 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
+      <c r="B20" s="7">
+        <v>12</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
@@ -1182,27 +2513,55 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" customHeight="1" ht="200">
       <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
+      <c r="B21" s="7">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -1212,25 +2571,53 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
+      <c r="B22" s="7">
+        <v>14</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -1238,27 +2625,55 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" customHeight="1" ht="200">
       <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
+      <c r="B23" s="7">
+        <v>15</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -1268,25 +2683,53 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
+      <c r="B24" s="7">
+        <v>16</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -1296,25 +2739,53 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
+      <c r="B25" s="7">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -1324,25 +2795,53 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
+      <c r="B26" s="7">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
@@ -1352,25 +2851,53 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
+      <c r="B27" s="7">
+        <v>19</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
@@ -1380,25 +2907,53 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
+      <c r="B28" s="7">
+        <v>20</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
@@ -1408,25 +2963,53 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
+      <c r="B29" s="7">
+        <v>21</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
@@ -1434,27 +3017,55 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" customHeight="1" ht="200">
       <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
+      <c r="B30" s="7">
+        <v>22</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
@@ -1462,27 +3073,53 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" customHeight="1" ht="200">
       <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
+      <c r="B31" s="7">
+        <v>23</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
@@ -1490,27 +3127,53 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" customHeight="1" ht="200">
       <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
+      <c r="B32" s="7">
+        <v>24</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
@@ -1520,25 +3183,51 @@
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
+      <c r="B33" s="7">
+        <v>25</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
@@ -1546,27 +3235,53 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" customHeight="1" ht="200">
       <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
+      <c r="B34" s="7">
+        <v>26</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
@@ -1574,27 +3289,53 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" customHeight="1" ht="200">
       <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
+      <c r="B35" s="7">
+        <v>27</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
@@ -1602,27 +3343,53 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" customHeight="1" ht="200">
       <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
+      <c r="B36" s="7">
+        <v>28</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
@@ -1632,25 +3399,53 @@
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
+      <c r="B37" s="7">
+        <v>29</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
@@ -1660,25 +3455,53 @@
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
+      <c r="B38" s="7">
+        <v>30</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
@@ -1688,25 +3511,53 @@
     </row>
     <row r="39" spans="1:26">
       <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
+      <c r="B39" s="7">
+        <v>31</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
@@ -1716,25 +3567,53 @@
     </row>
     <row r="40" spans="1:26">
       <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
+      <c r="B40" s="7">
+        <v>32</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
@@ -1744,25 +3623,53 @@
     </row>
     <row r="41" spans="1:26">
       <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
+      <c r="B41" s="7">
+        <v>33</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
@@ -1772,25 +3679,51 @@
     </row>
     <row r="42" spans="1:26">
       <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
+      <c r="B42" s="7">
+        <v>34</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
@@ -1798,27 +3731,53 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" customHeight="1" ht="200">
       <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
+      <c r="B43" s="7">
+        <v>35</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
@@ -1826,27 +3785,55 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" customHeight="1" ht="200">
       <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
+      <c r="B44" s="7">
+        <v>36</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N44" s="7">
+        <v>10</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
@@ -1854,27 +3841,55 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" customHeight="1" ht="200">
       <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
+      <c r="B45" s="7">
+        <v>37</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
@@ -1882,27 +3897,53 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" customHeight="1" ht="200">
       <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
+      <c r="B46" s="7">
+        <v>38</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
@@ -1910,27 +3951,53 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" customHeight="1" ht="200">
       <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
+      <c r="B47" s="7">
+        <v>39</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
@@ -1938,27 +4005,53 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" customHeight="1" ht="200">
       <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
+      <c r="B48" s="7">
+        <v>40</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" s="7">
+        <v>0</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
@@ -1966,27 +4059,53 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" customHeight="1" ht="200">
       <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
+      <c r="B49" s="7">
+        <v>41</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
@@ -1994,27 +4113,53 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" customHeight="1" ht="200">
       <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
+      <c r="B50" s="7">
+        <v>42</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N50" s="7">
+        <v>10</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
@@ -2024,24 +4169,24 @@
     </row>
     <row r="51" spans="1:26">
       <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
